--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.6070608053352</v>
+        <v>253.915230968121</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.2733278305006</v>
+        <v>347.4180209598165</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.3419786481608</v>
+        <v>314.26093264377</v>
       </c>
       <c r="AD2" t="n">
-        <v>175607.0608053352</v>
+        <v>253915.230968121</v>
       </c>
       <c r="AE2" t="n">
-        <v>240273.3278305006</v>
+        <v>347418.0209598165</v>
       </c>
       <c r="AF2" t="n">
         <v>1.001661468996863e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>217341.9786481608</v>
+        <v>314260.9326437701</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.4972054691657</v>
+        <v>218.915369135118</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.9169159909356</v>
+        <v>299.5296659149977</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.264494535026</v>
+        <v>270.9429749926853</v>
       </c>
       <c r="AD3" t="n">
-        <v>150497.2054691657</v>
+        <v>218915.369135118</v>
       </c>
       <c r="AE3" t="n">
-        <v>205916.9159909356</v>
+        <v>299529.6659149977</v>
       </c>
       <c r="AF3" t="n">
         <v>1.181174257158331e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>186264.4945350261</v>
+        <v>270942.9749926853</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.7640640728773</v>
+        <v>208.462037306043</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.9137995886187</v>
+        <v>285.2269561380119</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.3571141542633</v>
+        <v>258.0052957628311</v>
       </c>
       <c r="AD4" t="n">
-        <v>149764.0640728773</v>
+        <v>208462.037306043</v>
       </c>
       <c r="AE4" t="n">
-        <v>204913.7995886187</v>
+        <v>285226.9561380119</v>
       </c>
       <c r="AF4" t="n">
         <v>1.198134102244327e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>185357.1141542633</v>
+        <v>258005.2957628311</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.754857564484</v>
+        <v>227.1309199277863</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.9012028376724</v>
+        <v>310.7705449540418</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.3457196195477</v>
+        <v>281.1110403129193</v>
       </c>
       <c r="AD2" t="n">
-        <v>149754.857564484</v>
+        <v>227130.9199277863</v>
       </c>
       <c r="AE2" t="n">
-        <v>204901.2028376724</v>
+        <v>310770.5449540418</v>
       </c>
       <c r="AF2" t="n">
         <v>1.23404672743399e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>185345.7196195477</v>
+        <v>281111.0403129193</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.0706814285801</v>
+        <v>204.8003600605551</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.5461534621799</v>
+        <v>280.2168877889389</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.6470117984818</v>
+        <v>253.4733813053169</v>
       </c>
       <c r="AD3" t="n">
-        <v>137070.6814285801</v>
+        <v>204800.3600605551</v>
       </c>
       <c r="AE3" t="n">
-        <v>187546.1534621798</v>
+        <v>280216.8877889389</v>
       </c>
       <c r="AF3" t="n">
         <v>1.365028590846024e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>169647.0117984818</v>
+        <v>253473.3813053169</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.3351130162397</v>
+        <v>186.4006836468936</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.330251608114</v>
+        <v>255.041638783346</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.3106626827656</v>
+        <v>230.7008227311259</v>
       </c>
       <c r="AD2" t="n">
-        <v>130335.1130162397</v>
+        <v>186400.6836468936</v>
       </c>
       <c r="AE2" t="n">
-        <v>178330.251608114</v>
+        <v>255041.638783346</v>
       </c>
       <c r="AF2" t="n">
         <v>1.986367526254466e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>161310.6626827656</v>
+        <v>230700.8227311259</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.8524464409194</v>
+        <v>189.6805474040875</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.7745782566718</v>
+        <v>259.5292930733132</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.4262676301288</v>
+        <v>234.7601815941224</v>
       </c>
       <c r="AD2" t="n">
-        <v>132852.4464409194</v>
+        <v>189680.5474040875</v>
       </c>
       <c r="AE2" t="n">
-        <v>181774.5782566718</v>
+        <v>259529.2930733132</v>
       </c>
       <c r="AF2" t="n">
         <v>1.707805499685285e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>164426.2676301288</v>
+        <v>234760.1815941224</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.8916500601982</v>
+        <v>189.7197510233663</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.8282183781106</v>
+        <v>259.582933194752</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.474788413662</v>
+        <v>234.8087023776555</v>
       </c>
       <c r="AD3" t="n">
-        <v>132891.6500601982</v>
+        <v>189719.7510233663</v>
       </c>
       <c r="AE3" t="n">
-        <v>181828.2183781106</v>
+        <v>259582.933194752</v>
       </c>
       <c r="AF3" t="n">
         <v>1.706386626240411e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>164474.788413662</v>
+        <v>234808.7023776555</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.6236500616452</v>
+        <v>184.063789401003</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.9885524892222</v>
+        <v>251.8441969796221</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.1924520411847</v>
+        <v>227.8085402855107</v>
       </c>
       <c r="AD2" t="n">
-        <v>128623.6500616451</v>
+        <v>184063.789401003</v>
       </c>
       <c r="AE2" t="n">
-        <v>175988.5524892222</v>
+        <v>251844.1969796221</v>
       </c>
       <c r="AF2" t="n">
         <v>2.220670838534111e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>159192.4520411847</v>
+        <v>227808.5402855107</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.962404500266</v>
+        <v>228.8575855843481</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.2358629972766</v>
+        <v>313.1330450804611</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.2168613358547</v>
+        <v>283.2480667430636</v>
       </c>
       <c r="AD2" t="n">
-        <v>160962.404500266</v>
+        <v>228857.5855843481</v>
       </c>
       <c r="AE2" t="n">
-        <v>220235.8629972766</v>
+        <v>313133.0450804611</v>
       </c>
       <c r="AF2" t="n">
         <v>1.171531168675726e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>199216.8613358547</v>
+        <v>283248.0667430636</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.9853043300257</v>
+        <v>205.9136398030314</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.7975808662518</v>
+        <v>281.74012624703</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.7790047274989</v>
+        <v>254.8512440228469</v>
       </c>
       <c r="AD3" t="n">
-        <v>137985.3043300257</v>
+        <v>205913.6398030314</v>
       </c>
       <c r="AE3" t="n">
-        <v>188797.5808662518</v>
+        <v>281740.12624703</v>
       </c>
       <c r="AF3" t="n">
         <v>1.312354559013059e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>170779.0047274989</v>
+        <v>254851.2440228469</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.9292623784865</v>
+        <v>205.8575978514921</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.7209017957595</v>
+        <v>281.6634471765377</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.7096437998746</v>
+        <v>254.7818830952226</v>
       </c>
       <c r="AD4" t="n">
-        <v>137929.2623784865</v>
+        <v>205857.5978514921</v>
       </c>
       <c r="AE4" t="n">
-        <v>188720.9017957594</v>
+        <v>281663.4471765377</v>
       </c>
       <c r="AF4" t="n">
         <v>1.311987747641253e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>170709.6437998746</v>
+        <v>254781.8830952226</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.5940049416252</v>
+        <v>191.886468064743</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.5797466112748</v>
+        <v>262.5475310395716</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.9181006189567</v>
+        <v>237.4903631650057</v>
       </c>
       <c r="AD2" t="n">
-        <v>127594.0049416252</v>
+        <v>191886.468064743</v>
       </c>
       <c r="AE2" t="n">
-        <v>174579.7466112748</v>
+        <v>262547.5310395716</v>
       </c>
       <c r="AF2" t="n">
         <v>2.376839741326241e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.63020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>157918.1006189567</v>
+        <v>237490.3631650057</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.1325799440212</v>
+        <v>214.1502012026864</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.3132869106331</v>
+        <v>293.0097529254758</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.1002293529122</v>
+        <v>265.0453133481258</v>
       </c>
       <c r="AD2" t="n">
-        <v>147132.5799440212</v>
+        <v>214150.2012026864</v>
       </c>
       <c r="AE2" t="n">
-        <v>201313.2869106331</v>
+        <v>293009.7529254758</v>
       </c>
       <c r="AF2" t="n">
         <v>1.391097496483672e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>182100.2293529122</v>
+        <v>265045.3133481258</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.1257195413845</v>
+        <v>192.5890624352376</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.8849708024576</v>
+        <v>263.5088516535578</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.2398086768093</v>
+        <v>238.3599366888154</v>
       </c>
       <c r="AD3" t="n">
-        <v>135125.7195413845</v>
+        <v>192589.0624352376</v>
       </c>
       <c r="AE3" t="n">
-        <v>184884.9708024576</v>
+        <v>263508.8516535579</v>
       </c>
       <c r="AF3" t="n">
         <v>1.509622270162536e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>167239.8086768093</v>
+        <v>238359.9366888154</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.523924643992</v>
+        <v>216.0815576780007</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.2169861109283</v>
+        <v>295.6523200604337</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.8222421733904</v>
+        <v>267.4356775845905</v>
       </c>
       <c r="AD2" t="n">
-        <v>148523.924643992</v>
+        <v>216081.5576780007</v>
       </c>
       <c r="AE2" t="n">
-        <v>203216.9861109283</v>
+        <v>295652.3200604337</v>
       </c>
       <c r="AF2" t="n">
         <v>1.296375713233889e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>183822.2421733904</v>
+        <v>267435.6775845905</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.5689136043604</v>
+        <v>204.0923812195883</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.8596125886488</v>
+        <v>279.2481999049065</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.0259934223541</v>
+        <v>252.5971436333743</v>
       </c>
       <c r="AD3" t="n">
-        <v>136568.9136043604</v>
+        <v>204092.3812195883</v>
       </c>
       <c r="AE3" t="n">
-        <v>186859.6125886488</v>
+        <v>279248.1999049064</v>
       </c>
       <c r="AF3" t="n">
         <v>1.40038764653554e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>169025.9934223541</v>
+        <v>252597.1436333742</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.1151708227479</v>
+        <v>252.1163654104311</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.2320581387847</v>
+        <v>344.956733743439</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.4955248708816</v>
+        <v>312.0345472248847</v>
       </c>
       <c r="AD2" t="n">
-        <v>174115.1708227479</v>
+        <v>252116.3654104311</v>
       </c>
       <c r="AE2" t="n">
-        <v>238232.0581387847</v>
+        <v>344956.733743439</v>
       </c>
       <c r="AF2" t="n">
         <v>1.048948731634493e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>215495.5248708816</v>
+        <v>312034.5472248847</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.728402251599</v>
+        <v>208.2722577233017</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.8650055114572</v>
+        <v>284.9672913404211</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.3129769153431</v>
+        <v>257.7704130090805</v>
       </c>
       <c r="AD3" t="n">
-        <v>149728.402251599</v>
+        <v>208272.2577233017</v>
       </c>
       <c r="AE3" t="n">
-        <v>204865.0055114572</v>
+        <v>284967.2913404211</v>
       </c>
       <c r="AF3" t="n">
         <v>1.216930414553522e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>185312.9769153431</v>
+        <v>257770.4130090805</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.1331113470305</v>
+        <v>207.4387907656471</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.3680610645887</v>
+        <v>283.8269050789916</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.1996004998899</v>
+        <v>256.7388636118993</v>
       </c>
       <c r="AD4" t="n">
-        <v>139133.1113470305</v>
+        <v>207438.7907656471</v>
       </c>
       <c r="AE4" t="n">
-        <v>190368.0610645888</v>
+        <v>283826.9050789916</v>
       </c>
       <c r="AF4" t="n">
         <v>1.240446988749212e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>172199.6004998899</v>
+        <v>256738.8636118993</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.895749722449</v>
+        <v>190.9468818499801</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.2020718337521</v>
+        <v>261.2619477289155</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.7175232237129</v>
+        <v>236.3274741211906</v>
       </c>
       <c r="AD2" t="n">
-        <v>133895.749722449</v>
+        <v>190946.8818499801</v>
       </c>
       <c r="AE2" t="n">
-        <v>183202.0718337521</v>
+        <v>261261.9477289154</v>
       </c>
       <c r="AF2" t="n">
         <v>1.619017808622621e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>165717.5232237129</v>
+        <v>236327.4741211906</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.6810016389722</v>
+        <v>190.7321337665034</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.9082440319225</v>
+        <v>260.9681199270859</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.4517379349</v>
+        <v>236.0616888323776</v>
       </c>
       <c r="AD3" t="n">
-        <v>133681.0016389722</v>
+        <v>190732.1337665034</v>
       </c>
       <c r="AE3" t="n">
-        <v>182908.2440319225</v>
+        <v>260968.1199270858</v>
       </c>
       <c r="AF3" t="n">
         <v>1.631842987952684e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>165451.7379349</v>
+        <v>236061.6888323776</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.2440039056722</v>
+        <v>187.5822843098478</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.573836220471</v>
+        <v>256.6583569389413</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.4355613251015</v>
+        <v>232.16324357503</v>
       </c>
       <c r="AD2" t="n">
-        <v>131244.0039056722</v>
+        <v>187582.2843098478</v>
       </c>
       <c r="AE2" t="n">
-        <v>179573.836220471</v>
+        <v>256658.3569389413</v>
       </c>
       <c r="AF2" t="n">
         <v>1.876808653705476e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>162435.5613251015</v>
+        <v>232163.2435750299</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.5833185868837</v>
+        <v>185.3518032850924</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.3016133030402</v>
+        <v>253.6065143989944</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.3801961738247</v>
+        <v>229.4026646038067</v>
       </c>
       <c r="AD2" t="n">
-        <v>129583.3185868837</v>
+        <v>185351.8032850923</v>
       </c>
       <c r="AE2" t="n">
-        <v>177301.6133030402</v>
+        <v>253606.5143989944</v>
       </c>
       <c r="AF2" t="n">
         <v>2.086784567017677e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>160380.1961738247</v>
+        <v>229402.6646038067</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.774379843263</v>
+        <v>199.4969027820996</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.7724964443602</v>
+        <v>272.9604635685374</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.0426301170991</v>
+        <v>246.9095000280529</v>
       </c>
       <c r="AD2" t="n">
-        <v>135774.379843263</v>
+        <v>199496.9027820996</v>
       </c>
       <c r="AE2" t="n">
-        <v>185772.4964443602</v>
+        <v>272960.4635685374</v>
       </c>
       <c r="AF2" t="n">
         <v>2.541155095096408e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>168042.6301170991</v>
+        <v>246909.5000280529</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.6343233879207</v>
+        <v>214.8758845069549</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.9997944259347</v>
+        <v>294.0026648372635</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.721217554473</v>
+        <v>265.9434631406134</v>
       </c>
       <c r="AD2" t="n">
-        <v>147634.3233879207</v>
+        <v>214875.884506955</v>
       </c>
       <c r="AE2" t="n">
-        <v>201999.7944259347</v>
+        <v>294002.6648372635</v>
       </c>
       <c r="AF2" t="n">
         <v>1.352822438550965e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>182721.217554473</v>
+        <v>265943.4631406134</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.6286461875027</v>
+        <v>193.2839375331006</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.5730972272338</v>
+        <v>264.4596104181792</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.8622612813966</v>
+        <v>239.2199563713399</v>
       </c>
       <c r="AD3" t="n">
-        <v>135628.6461875027</v>
+        <v>193283.9375331006</v>
       </c>
       <c r="AE3" t="n">
-        <v>185573.0972272338</v>
+        <v>264459.6104181792</v>
       </c>
       <c r="AF3" t="n">
         <v>1.467223290703924e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>167862.2612813966</v>
+        <v>239219.9563713399</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.4785772128114</v>
+        <v>240.3350421377089</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.3103573913994</v>
+        <v>328.8370074864083</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.0933688965744</v>
+        <v>297.453265017642</v>
       </c>
       <c r="AD2" t="n">
-        <v>162478.5772128114</v>
+        <v>240335.0421377089</v>
       </c>
       <c r="AE2" t="n">
-        <v>222310.3573913994</v>
+        <v>328837.0074864082</v>
       </c>
       <c r="AF2" t="n">
         <v>1.112644366498545e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>201093.3688965744</v>
+        <v>297453.2650176419</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.2208073422757</v>
+        <v>207.6056257111108</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.1704917630144</v>
+        <v>284.0551760116132</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.6847465842953</v>
+        <v>256.9453486870918</v>
       </c>
       <c r="AD3" t="n">
-        <v>149220.8073422757</v>
+        <v>207605.6257111108</v>
       </c>
       <c r="AE3" t="n">
-        <v>204170.4917630144</v>
+        <v>284055.1760116132</v>
       </c>
       <c r="AF3" t="n">
         <v>1.245472458451194e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.15104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>184684.7465842953</v>
+        <v>256945.3486870918</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.4229614804867</v>
+        <v>206.5430976124244</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.396402687583</v>
+        <v>282.6013781915598</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.3206758346542</v>
+        <v>255.6302992905658</v>
       </c>
       <c r="AD4" t="n">
-        <v>138422.9614804867</v>
+        <v>206543.0976124244</v>
       </c>
       <c r="AE4" t="n">
-        <v>189396.402687583</v>
+        <v>282601.3781915598</v>
       </c>
       <c r="AF4" t="n">
         <v>1.282587854659155e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>171320.6758346542</v>
+        <v>255630.2992905658</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.7314966708271</v>
+        <v>215.9346861139425</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.6597747310471</v>
+        <v>295.4513639069734</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.890841844499</v>
+        <v>267.2539004043726</v>
       </c>
       <c r="AD2" t="n">
-        <v>143731.4966708272</v>
+        <v>215934.6861139425</v>
       </c>
       <c r="AE2" t="n">
-        <v>196659.7747310471</v>
+        <v>295451.3639069734</v>
       </c>
       <c r="AF2" t="n">
         <v>2.677292978703073e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>177890.841844499</v>
+        <v>267253.9004043726</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.0213880490132</v>
+        <v>188.6127154043951</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.6374875011575</v>
+        <v>258.0682382219118</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.3976992204036</v>
+        <v>233.4385677671349</v>
       </c>
       <c r="AD2" t="n">
-        <v>132021.3880490132</v>
+        <v>188612.7154043951</v>
       </c>
       <c r="AE2" t="n">
-        <v>180637.4875011575</v>
+        <v>258068.2382219118</v>
       </c>
       <c r="AF2" t="n">
         <v>1.793053561915396e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>163397.6992204037</v>
+        <v>233438.5677671349</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.4654761117752</v>
+        <v>202.3159463368489</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.349840731068</v>
+        <v>276.8176033275676</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.6603120718823</v>
+        <v>250.3985197820122</v>
       </c>
       <c r="AD2" t="n">
-        <v>135465.4761117752</v>
+        <v>202315.9463368489</v>
       </c>
       <c r="AE2" t="n">
-        <v>185349.840731068</v>
+        <v>276817.6033275676</v>
       </c>
       <c r="AF2" t="n">
         <v>1.508353066731122e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.78645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>167660.3120718822</v>
+        <v>250398.5197820122</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.426086213084</v>
+        <v>191.6884541001119</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.9277016170333</v>
+        <v>262.2765995974039</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.3738999189058</v>
+        <v>237.2452890394238</v>
       </c>
       <c r="AD3" t="n">
-        <v>134426.086213084</v>
+        <v>191688.4541001119</v>
       </c>
       <c r="AE3" t="n">
-        <v>183927.7016170333</v>
+        <v>262276.5995974039</v>
       </c>
       <c r="AF3" t="n">
         <v>1.566305119342609e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>166373.8999189058</v>
+        <v>237245.2890394238</v>
       </c>
     </row>
   </sheetData>
